--- a/StudyStep/01 神经网络和深度学习-进行中.xlsx
+++ b/StudyStep/01 神经网络和深度学习-进行中.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fangbao/Desktop/5_深度汇总/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\15_leetcoding\StudyStep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C56A2ED-E30B-0841-B00B-8FE372C38996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7258CA98-73D4-45F9-8929-8FD7ECA74D4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="-17680" windowWidth="27540" windowHeight="17040" activeTab="3" xr2:uid="{C9BB84C0-0EEC-D84C-AB2B-BB3DF301E089}"/>
+    <workbookView xWindow="10080" yWindow="4080" windowWidth="18660" windowHeight="11445" activeTab="1" xr2:uid="{C9BB84C0-0EEC-D84C-AB2B-BB3DF301E089}"/>
   </bookViews>
   <sheets>
     <sheet name="第一周 深度学习概论" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -764,13 +764,13 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,7 +781,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -790,7 +790,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -798,7 +798,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -806,7 +806,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -814,7 +814,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -822,7 +822,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -830,7 +830,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -838,7 +838,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -846,7 +846,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -854,7 +854,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -862,7 +862,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -870,7 +870,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -878,7 +878,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -886,7 +886,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -894,7 +894,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -902,28 +902,28 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
     </row>
   </sheetData>
@@ -937,18 +937,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C093D584-8279-4040-BBE1-1D22076C9584}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -959,7 +959,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -967,7 +967,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -975,7 +975,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -983,7 +983,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -991,7 +991,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -999,7 +999,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1146,44 +1146,46 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" s="3">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -1191,7 +1193,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1203,12 +1205,12 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1219,102 +1221,102 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -1330,16 +1332,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E44DCD-7E56-9F42-B2D5-27F8891275BD}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="1" max="1" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1350,82 +1352,82 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>85</v>
       </c>

--- a/StudyStep/01 神经网络和深度学习-进行中.xlsx
+++ b/StudyStep/01 神经网络和深度学习-进行中.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\15_leetcoding\StudyStep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fangbao/zooprog/03_self_tools/03_leetcoding/StudyStep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7258CA98-73D4-45F9-8929-8FD7ECA74D4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552F2693-58BE-A641-8785-B38D8496593F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="4080" windowWidth="18660" windowHeight="11445" activeTab="1" xr2:uid="{C9BB84C0-0EEC-D84C-AB2B-BB3DF301E089}"/>
+    <workbookView xWindow="-4800" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{C9BB84C0-0EEC-D84C-AB2B-BB3DF301E089}"/>
   </bookViews>
   <sheets>
     <sheet name="第一周 深度学习概论" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -764,13 +764,13 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,7 +781,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -790,7 +790,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -798,7 +798,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -806,7 +806,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -814,7 +814,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -822,7 +822,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -830,7 +830,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -838,7 +838,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -846,7 +846,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -854,7 +854,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -862,7 +862,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -870,7 +870,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -878,7 +878,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -886,7 +886,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -894,7 +894,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -902,28 +902,28 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3">
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3">
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3">
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3">
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3">
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3">
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3">
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3">
       <c r="C24" s="3"/>
     </row>
   </sheetData>
@@ -938,17 +938,17 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="37.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -959,7 +959,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -967,7 +967,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -975,7 +975,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -983,7 +983,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -991,7 +991,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -999,7 +999,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1154,40 +1154,60 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="3">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="3">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="3">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="3">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="3">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="3">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>48</v>
+      </c>
+      <c r="C32" s="3">
+        <v>44012</v>
       </c>
     </row>
   </sheetData>
@@ -1205,12 +1225,12 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1221,102 +1241,102 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -1336,12 +1356,12 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="32.125" customWidth="1"/>
+    <col min="1" max="1" width="32.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1352,82 +1372,82 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>85</v>
       </c>

--- a/StudyStep/01 神经网络和深度学习-进行中.xlsx
+++ b/StudyStep/01 神经网络和深度学习-进行中.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fangbao/zooprog/03_self_tools/03_leetcoding/StudyStep/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fangbao/zooprog/02_leetcoding/StudyStep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552F2693-58BE-A641-8785-B38D8496593F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E88B20-3630-BD4B-A6BC-F03C4B41E7EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4800" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{C9BB84C0-0EEC-D84C-AB2B-BB3DF301E089}"/>
+    <workbookView xWindow="-4800" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{C9BB84C0-0EEC-D84C-AB2B-BB3DF301E089}"/>
   </bookViews>
   <sheets>
     <sheet name="第一周 深度学习概论" sheetId="1" r:id="rId1"/>
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C093D584-8279-4040-BBE1-1D22076C9584}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1221,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8716E8-7580-DB49-AE3D-C1B1F7DCC430}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
